--- a/Anhang/Berechnung CWSS-Score (Kommunikation).xlsx
+++ b/Anhang/Berechnung CWSS-Score (Kommunikation).xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Semester\Unterlagen\Sicherer Programmierung\chess_server_strong\Anhang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro Schamberger\PycharmProjects\chess_server_strong\Anhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076CF79-3FE7-4FBA-A339-B7E479785FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1910185-137D-4DC3-A3B9-404DE551909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12652" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWSS Score" sheetId="1" r:id="rId1"/>
     <sheet name="Base Finding" sheetId="3" r:id="rId2"/>
     <sheet name="Attack Surface" sheetId="5" r:id="rId3"/>
     <sheet name="Environmental " sheetId="6" r:id="rId4"/>
-    <sheet name="CEW" sheetId="7" r:id="rId5"/>
+    <sheet name="CWE" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1148,6 +1148,24 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,24 +1203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,42 +1531,42 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.3828125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.15234375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.69140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.15234375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.69140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="44" t="s">
@@ -1585,7 +1585,7 @@
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="70" t="s">
         <v>119</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="71"/>
       <c r="B8" s="1" t="s">
         <v>61</v>
@@ -1636,7 +1636,7 @@
       <c r="I8" s="69"/>
       <c r="J8" s="69"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="71"/>
       <c r="B9" s="1" t="s">
         <v>100</v>
@@ -1658,7 +1658,7 @@
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="71"/>
       <c r="B10" s="1" t="s">
         <v>101</v>
@@ -1680,7 +1680,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="71"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="72" t="s">
         <v>118</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="73"/>
       <c r="B13" s="48" t="s">
         <v>69</v>
@@ -1752,7 +1752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="73"/>
       <c r="B14" s="48" t="s">
         <v>116</v>
@@ -1778,7 +1778,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="73"/>
       <c r="B15" s="48" t="s">
         <v>82</v>
@@ -1804,7 +1804,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="73"/>
       <c r="B16" s="48" t="s">
         <v>87</v>
@@ -1834,7 +1834,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="73"/>
       <c r="B17" s="48" t="s">
         <v>95</v>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="74" t="s">
         <v>117</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="74"/>
       <c r="B19" s="51" t="s">
         <v>105</v>
@@ -1892,7 +1892,7 @@
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="74"/>
       <c r="B20" s="51" t="s">
         <v>107</v>
@@ -1912,7 +1912,7 @@
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="74"/>
       <c r="B21" s="51" t="s">
         <v>109</v>
@@ -1932,7 +1932,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="67"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="74"/>
       <c r="B22" s="51" t="s">
         <v>112</v>
@@ -1952,11 +1952,11 @@
       <c r="G22" s="66"/>
       <c r="H22" s="67"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G23" s="66"/>
       <c r="H23" s="67"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G24" s="66"/>
       <c r="H24" s="67"/>
     </row>
@@ -1981,16 +1981,16 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.69140625" customWidth="1"/>
+    <col min="2" max="4" width="14.69140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="14.69140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.6" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -2006,10 +2006,10 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>TI</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="33">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2129,7 +2129,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>AP</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>55</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="33">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2249,7 +2249,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>AL</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="33">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2363,7 +2363,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>101</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>IC</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="33">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2489,7 +2489,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>FC</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="33">
         <v>1</v>
@@ -2583,19 +2583,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L26" s="2"/>
     </row>
   </sheetData>
@@ -2612,16 +2612,16 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.69140625" customWidth="1"/>
+    <col min="2" max="4" width="14.69140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="14.69140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.6" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
         <v>68</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>RP</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
         <v>66</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" s="33">
         <v>1</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2756,7 +2756,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
         <v>69</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>RL</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="32"/>
       <c r="B9" s="33">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2870,7 +2870,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>71</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>AV</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>70</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="30"/>
       <c r="B13" s="33">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2996,7 +2996,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>82</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>AS</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>0.7</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3110,7 +3110,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="28" t="s">
         <v>87</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v xml:space="preserve"> IN</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="33">
         <v>1</v>
@@ -3222,10 +3222,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>SC</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>96</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="33">
         <v>1</v>
       </c>
@@ -3336,16 +3336,16 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.69140625" customWidth="1"/>
+    <col min="2" max="4" width="14.69140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="14.69140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.6" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>102</v>
       </c>
@@ -3361,10 +3361,10 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>104</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>BI</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="36" t="s">
         <v>103</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="33">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3484,7 +3484,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>DI</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="33">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3592,7 +3592,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>107</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>EX</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>108</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="33">
         <v>1</v>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3706,7 +3706,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>109</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>110</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="33">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3832,7 +3832,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="36" t="s">
         <v>112</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="36" t="s">
         <v>42</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="33">
         <v>1</v>
@@ -3939,19 +3939,19 @@
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L26" s="2"/>
     </row>
   </sheetData>
@@ -3964,699 +3964,712 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D29B118-FCFB-4835-9D5F-5ED89EC86140}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="80"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="86"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="87"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="87"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="78">
         <v>290</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="90"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="90"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="80"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="80"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="75">
         <v>294</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="77"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="78">
         <v>924</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="75">
         <v>291</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="78">
         <v>300</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91">
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="80"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="80"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="75">
         <v>345</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88">
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="78">
         <v>346</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91">
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="75">
         <v>923</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88">
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="77"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="78">
         <v>940</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91">
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="80"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="75">
         <v>319</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="78">
         <v>523</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="80"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="80"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="75">
         <v>406</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88">
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="77"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="77"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="78">
         <v>359</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="91">
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="78"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="75">
         <v>353</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="88">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="78">
         <v>354</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="90"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:P32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:P34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:P28"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:P8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:P6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:P10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:P12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:P14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:P16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:P18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:P20"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:P26"/>
     <mergeCell ref="A29:A30"/>
@@ -4665,25 +4678,12 @@
     <mergeCell ref="B21:P22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:P24"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:P16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:P18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:P20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:P10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:P14"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:P6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:P8"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:P32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:P34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Anhang/Berechnung CWSS-Score (Kommunikation).xlsx
+++ b/Anhang/Berechnung CWSS-Score (Kommunikation).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro Schamberger\PycharmProjects\chess_server_strong\Anhang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Semester\Unterlagen\Sicherer Programmierung\chess_server_strong\Anhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1910185-137D-4DC3-A3B9-404DE551909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7959CBEF-6B32-4472-934D-0286DAA67705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12652" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWSS Score" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="144">
   <si>
     <t xml:space="preserve">The Common Weakness Scoring System (CWSS) provides a mechanism for prioritizing software weaknesses in a consistent, flexible, open manner. </t>
   </si>
@@ -495,22 +495,7 @@
     <t>Improper Enforcement of Message Integrity During Transmission in a Communication Channel</t>
   </si>
   <si>
-    <t>Reliance on IP Address for Authentication</t>
-  </si>
-  <si>
     <t>Channel Accessible by Non-Endpoint</t>
-  </si>
-  <si>
-    <t>Insufficient Verification of Data Authenticity</t>
-  </si>
-  <si>
-    <t>Origin Validation Error</t>
-  </si>
-  <si>
-    <t>Improper Restriction of Communication Channel to Intended Endpoints</t>
-  </si>
-  <si>
-    <t>Improper Verification of Source of a Communication Channel</t>
   </si>
   <si>
     <t>Cleartext Transmission of Sensitive Information</t>
@@ -690,7 +675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,12 +781,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,13 +1127,43 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,43 +1175,13 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,42 +1510,42 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="29.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.15234375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.15234375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.69140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.69140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.15234375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.69140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.15234375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="44" t="s">
@@ -1585,7 +1564,7 @@
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>119</v>
       </c>
@@ -1614,7 +1593,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="71"/>
       <c r="B8" s="1" t="s">
         <v>61</v>
@@ -1636,7 +1615,7 @@
       <c r="I8" s="69"/>
       <c r="J8" s="69"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
       <c r="B9" s="1" t="s">
         <v>100</v>
@@ -1658,7 +1637,7 @@
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="1" t="s">
         <v>101</v>
@@ -1680,7 +1659,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
@@ -1698,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>118</v>
       </c>
@@ -1726,7 +1705,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" s="48" t="s">
         <v>69</v>
@@ -1752,7 +1731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" s="48" t="s">
         <v>116</v>
@@ -1778,7 +1757,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="48" t="s">
         <v>82</v>
@@ -1804,7 +1783,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" s="48" t="s">
         <v>87</v>
@@ -1834,7 +1813,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" s="48" t="s">
         <v>95</v>
@@ -1852,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>117</v>
       </c>
@@ -1872,7 +1851,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="51" t="s">
         <v>105</v>
@@ -1892,7 +1871,7 @@
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="74"/>
       <c r="B20" s="51" t="s">
         <v>107</v>
@@ -1912,7 +1891,7 @@
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="51" t="s">
         <v>109</v>
@@ -1932,7 +1911,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="67"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="51" t="s">
         <v>112</v>
@@ -1952,11 +1931,11 @@
       <c r="G22" s="66"/>
       <c r="H22" s="67"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23" s="66"/>
       <c r="H23" s="67"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G24" s="66"/>
       <c r="H24" s="67"/>
     </row>
@@ -1981,16 +1960,16 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" customWidth="1"/>
-    <col min="2" max="4" width="14.69140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
-    <col min="6" max="11" width="14.69140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.15234375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -2006,10 +1985,10 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
@@ -2046,7 +2025,7 @@
         <v>TI</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
@@ -2082,7 +2061,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="33">
         <v>1</v>
@@ -2115,7 +2094,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2129,7 +2108,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -2166,7 +2145,7 @@
         <v>AP</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>55</v>
       </c>
@@ -2202,7 +2181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="33">
         <v>1</v>
@@ -2235,7 +2214,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2249,7 +2228,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
@@ -2284,7 +2263,7 @@
         <v>AL</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
@@ -2318,7 +2297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="33">
         <v>1</v>
@@ -2349,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2363,7 +2342,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>101</v>
       </c>
@@ -2402,7 +2381,7 @@
         <v>IC</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -2440,7 +2419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="33">
         <v>1</v>
@@ -2475,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2489,7 +2468,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
@@ -2522,7 +2501,7 @@
         <v>FC</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="33">
         <v>1</v>
@@ -2583,19 +2562,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L26" s="2"/>
     </row>
   </sheetData>
@@ -2612,16 +2591,16 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" customWidth="1"/>
-    <col min="2" max="4" width="14.69140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
-    <col min="6" max="11" width="14.69140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.15234375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
@@ -2637,7 +2616,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>68</v>
       </c>
@@ -2674,7 +2653,7 @@
         <v>RP</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>66</v>
       </c>
@@ -2710,7 +2689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="33">
         <v>1</v>
       </c>
@@ -2742,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2756,7 +2735,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>69</v>
       </c>
@@ -2791,7 +2770,7 @@
         <v>RL</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2825,7 +2804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="33">
         <v>1</v>
@@ -2856,7 +2835,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2870,7 +2849,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>71</v>
       </c>
@@ -2909,7 +2888,7 @@
         <v>AV</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>70</v>
       </c>
@@ -2947,7 +2926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="33">
         <v>1</v>
@@ -2982,7 +2961,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2996,7 +2975,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>82</v>
       </c>
@@ -3031,7 +3010,7 @@
         <v>AS</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
@@ -3065,7 +3044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>0.7</v>
@@ -3096,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3110,7 +3089,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>87</v>
       </c>
@@ -3149,7 +3128,7 @@
         <v xml:space="preserve"> IN</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -3187,7 +3166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="33">
         <v>1</v>
@@ -3222,10 +3201,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3239,7 @@
         <v>SC</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>96</v>
       </c>
@@ -3294,7 +3273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="33">
         <v>1</v>
       </c>
@@ -3336,16 +3315,16 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" customWidth="1"/>
-    <col min="2" max="4" width="14.69140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.3828125" style="2" customWidth="1"/>
-    <col min="6" max="11" width="14.69140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.15234375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
+    <col min="6" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>102</v>
       </c>
@@ -3361,10 +3340,10 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>104</v>
       </c>
@@ -3401,7 +3380,7 @@
         <v>BI</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>103</v>
       </c>
@@ -3437,7 +3416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="33">
         <v>1</v>
@@ -3470,7 +3449,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3484,7 +3463,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -3517,7 +3496,7 @@
         <v>DI</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -3549,7 +3528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="33">
         <v>1</v>
@@ -3578,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3592,7 +3571,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>107</v>
       </c>
@@ -3627,7 +3606,7 @@
         <v>EX</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>108</v>
       </c>
@@ -3661,7 +3640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="33">
         <v>1</v>
@@ -3692,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3706,7 +3685,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>109</v>
       </c>
@@ -3745,7 +3724,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>110</v>
       </c>
@@ -3783,7 +3762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="33">
         <v>1</v>
@@ -3818,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3832,7 +3811,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>112</v>
       </c>
@@ -3867,7 +3846,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>42</v>
       </c>
@@ -3901,7 +3880,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="33">
         <v>1</v>
@@ -3939,19 +3918,19 @@
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L26" s="2"/>
     </row>
   </sheetData>
@@ -3962,728 +3941,518 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D29B118-FCFB-4835-9D5F-5ED89EC86140}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="83"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="86"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="87" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="87"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="78">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88">
         <v>290</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="80"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="80"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="75">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="90"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="91">
         <v>294</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="78">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="93"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88">
+        <v>300</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="91">
+        <v>319</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="88">
+        <v>353</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91">
+        <v>354</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="88">
+        <v>359</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="91">
+        <v>406</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88">
+        <v>523</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="90"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="91">
         <v>924</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B23" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75">
-        <v>291</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="78">
-        <v>300</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="75">
-        <v>345</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="78">
-        <v>346</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="75">
-        <v>923</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="78">
-        <v>940</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="75">
-        <v>319</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="78">
-        <v>523</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="80"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="75">
-        <v>406</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="77"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="78">
-        <v>359</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="75">
-        <v>353</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="77"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="78">
-        <v>354</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
-    </row>
-    <row r="35" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="23">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:P24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:P22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:P20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:P16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:P18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:P14"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:P8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:P10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:P12"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:P4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:P6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:P10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:P14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:P16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:P18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:P20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:P26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:P30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:P22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:P24"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:P32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:P34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
